--- a/Documentos/Backlog/Backlog.xlsx
+++ b/Documentos/Backlog/Backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Martinez\Desktop\ICF232_202010_Grupo10\Documentos\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Martinez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DA1B5-8ADA-432B-AAFA-C75AA4F014AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592714DE-0A99-4FF2-81B3-9D473784D5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D52BB8F3-0F35-43FB-8B1E-CCD4985B324B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52BB8F3-0F35-43FB-8B1E-CCD4985B324B}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Pri. Semestre - Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Seg. Semestre - Sprint 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>Entrega</t>
   </si>
@@ -127,15 +128,9 @@
     <t>Yo como médico necesito ordenar las consultas médicas por fecha para poder encontrarlas con mayor facilidad.</t>
   </si>
   <si>
-    <t>Yo como médico necesito ordenar las consultas médicas por tipo de examen para poder encontrarlas con mayor facilidad.</t>
-  </si>
-  <si>
     <t>Yo como médico necesito buscar las consultas médicas del paciente por fecha para encontrarla con mayor facilidad.</t>
   </si>
   <si>
-    <t>Yo como médico necesito buscar las imágenes por del paciente por tipo de examen realizado para encontrarla con mayor facilidad.</t>
-  </si>
-  <si>
     <t>Yo como médico necesito visualizar las imágenes del paciente para planear sus tratamientos.</t>
   </si>
   <si>
@@ -164,6 +159,24 @@
   </si>
   <si>
     <t>Yo como médico necesito exportar el modelo 3D del paciente, para luego poder imprimirlo.</t>
+  </si>
+  <si>
+    <t>Yo como médico necesito ordenar las consultas médicas por nombre de paciente alfabeticamente para poder encontrarlos con mayor facilidad.</t>
+  </si>
+  <si>
+    <t>Yo como médico necesito buscar las imágenes del paciente por nombre del paciente para encontrarlo con mayor facilidad.</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>9 Puntos</t>
+  </si>
+  <si>
+    <t>35 Puntos</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -239,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,12 +295,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,6 +403,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,14 +749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B43D29-F1E8-400F-868A-B282EE8FE910}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="114.7109375" customWidth="1"/>
+    <col min="2" max="2" width="130.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="3.140625" customWidth="1"/>
@@ -877,7 +972,7 @@
         <v>2.1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
@@ -923,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
@@ -952,7 +1047,7 @@
         <v>3.1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -981,7 +1076,7 @@
         <v>3.2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
@@ -1010,7 +1105,7 @@
         <v>3.3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
@@ -1034,10 +1129,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -1083,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>20</v>
@@ -1110,7 +1205,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
@@ -1137,7 +1232,7 @@
         <v>4.2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -1164,7 +1259,7 @@
         <v>4.3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>20</v>
@@ -1191,7 +1286,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>20</v>
@@ -1237,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>21</v>
@@ -1262,7 +1357,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>21</v>
@@ -1487,7 +1582,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,8 +1670,12 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1728,5 +1827,292 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325A4E19-3072-49EB-9FE2-A930699BCD1F}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentos/Backlog/Backlog.xlsx
+++ b/Documentos/Backlog/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Martinez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Martinez\Desktop\ICF232_202010_Grupo10\Documentos\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592714DE-0A99-4FF2-81B3-9D473784D5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FDE83-C914-4928-8562-204FB27E6C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52BB8F3-0F35-43FB-8B1E-CCD4985B324B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>Entrega</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Yo como médico necesito visualizar el detalle de la imagen para poder tomar una mejor decisión.</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +402,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,12 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -750,7 +754,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,13 +784,13 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1132,7 +1136,7 @@
         <v>3.4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -1155,14 +1159,14 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1178,21 +1182,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1205,7 +1209,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
@@ -1232,7 +1236,7 @@
         <v>4.2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -1259,7 +1263,7 @@
         <v>4.3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>20</v>
@@ -1286,13 +1290,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1309,17 +1313,25 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="A22" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1328,23 +1340,17 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>5</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1354,10 +1360,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>21</v>
@@ -1378,15 +1384,23 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1670,10 +1684,10 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="5"/>
@@ -1859,7 +1873,7 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6">
@@ -1878,7 +1892,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="10">
         <v>3.1</v>
       </c>
@@ -1895,7 +1909,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6">
@@ -1914,7 +1928,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="10">
         <v>2.1</v>
       </c>
@@ -1931,7 +1945,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="10">
@@ -1950,7 +1964,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="10">
         <v>3.3</v>
       </c>
@@ -1967,7 +1981,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="10">
@@ -1986,7 +2000,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="6">
         <v>1.3</v>
       </c>
@@ -2006,10 +2020,10 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="5"/>

--- a/Documentos/Backlog/Backlog.xlsx
+++ b/Documentos/Backlog/Backlog.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Martinez\Desktop\ICF232_202010_Grupo10\Documentos\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FDE83-C914-4928-8562-204FB27E6C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C298854C-2F1D-407D-9062-521289CC1DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52BB8F3-0F35-43FB-8B1E-CCD4985B324B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D52BB8F3-0F35-43FB-8B1E-CCD4985B324B}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Pri. Semestre - Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Seg. Semestre - Sprint 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Seg. Semestre - Sprint 2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>Entrega</t>
   </si>
@@ -161,12 +162,6 @@
     <t>Yo como médico necesito exportar el modelo 3D del paciente, para luego poder imprimirlo.</t>
   </si>
   <si>
-    <t>Yo como médico necesito ordenar las consultas médicas por nombre de paciente alfabeticamente para poder encontrarlos con mayor facilidad.</t>
-  </si>
-  <si>
-    <t>Yo como médico necesito buscar las imágenes del paciente por nombre del paciente para encontrarlo con mayor facilidad.</t>
-  </si>
-  <si>
     <t>Semana 4</t>
   </si>
   <si>
@@ -180,6 +175,15 @@
   </si>
   <si>
     <t>Yo como médico necesito visualizar el detalle de la imagen para poder tomar una mejor decisión.</t>
+  </si>
+  <si>
+    <t>Yo como médico necesito buscar las fichas médicas de los pacientes con sus nombres para encontrarlas con mayor facilidad.</t>
+  </si>
+  <si>
+    <t>Yo como médico necesito buscar las fichas médicas de los pacientes con sus ruts para encontrarlas con mayor facilidad.</t>
+  </si>
+  <si>
+    <t>47 Puntos</t>
   </si>
 </sst>
 </file>
@@ -408,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,7 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -753,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B43D29-F1E8-400F-868A-B282EE8FE910}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,13 +788,13 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -976,7 +980,7 @@
         <v>2.1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
@@ -1051,7 +1055,7 @@
         <v>3.1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -1136,7 +1140,7 @@
         <v>3.4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -1159,7 +1163,7 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="19"/>
@@ -1340,7 +1344,7 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="19"/>
@@ -1685,10 +1689,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1850,7 +1854,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1877,7 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6">
@@ -1892,7 +1896,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="10">
         <v>3.1</v>
       </c>
@@ -1909,7 +1913,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6">
@@ -1928,7 +1932,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="10">
         <v>2.1</v>
       </c>
@@ -1945,7 +1949,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="10">
@@ -1964,7 +1968,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="10">
         <v>3.3</v>
       </c>
@@ -1981,8 +1985,8 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>44</v>
+      <c r="A8" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="10">
         <v>3.4</v>
@@ -2000,7 +2004,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="6">
         <v>1.3</v>
       </c>
@@ -2021,10 +2025,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2129,4 +2133,277 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55483444-73AC-4A16-B2BF-C95FBDD0DDD7}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentos/Backlog/Backlog.xlsx
+++ b/Documentos/Backlog/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Martinez\Desktop\ICF232_202010_Grupo10\Documentos\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C298854C-2F1D-407D-9062-521289CC1DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996260AE-A18E-4693-8D8C-314AF87DE5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D52BB8F3-0F35-43FB-8B1E-CCD4985B324B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52BB8F3-0F35-43FB-8B1E-CCD4985B324B}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>Yo como médico necesito rotar a la izquierda las imágenes del paciente para ver de otra perspectiva las imágenes.</t>
   </si>
   <si>
-    <t>Yo como médico necesito editar las imágenes del paciente, agregándoles figuras para destacar algunas zonas.</t>
-  </si>
-  <si>
     <t>Yo como médico necesito crear un modelo 3D a partir de las imágenes del paciente.</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>47 Puntos</t>
+  </si>
+  <si>
+    <t>Yo como médico necesito visualizar las imágenes del paciente en distintos tonos (con distintos filtros) para tener una mejor visión.</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B43D29-F1E8-400F-868A-B282EE8FE910}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +980,7 @@
         <v>2.1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
@@ -1055,7 +1055,7 @@
         <v>3.1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -1140,7 +1140,7 @@
         <v>3.4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -1321,7 +1321,7 @@
         <v>4.5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>21</v>
@@ -1392,7 +1392,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>21</v>
@@ -1689,10 +1689,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10">
         <v>3.4</v>
@@ -2025,10 +2025,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2139,7 +2139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55483444-73AC-4A16-B2BF-C95FBDD0DDD7}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10">
         <v>4.5</v>
@@ -2299,10 +2299,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
